--- a/FME_files/LOOKUP_TABLES/Config_BC_XML_Publisher.xlsx
+++ b/FME_files/LOOKUP_TABLES/Config_BC_XML_Publisher.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="CONFIG_FILE" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -378,12 +378,6 @@
     <t>service_other_lang_locale</t>
   </si>
   <si>
-    <t>resources{}.transfert_option_description_service</t>
-  </si>
-  <si>
-    <t>resources{}.transfert_option_description_service_other_lang</t>
-  </si>
-  <si>
     <t>transfert_option_description_language_other_lang</t>
   </si>
   <si>
@@ -400,6 +394,12 @@
   </si>
   <si>
     <t>abstract_other_lang_locale</t>
+  </si>
+  <si>
+    <t>resources{}.format_resourceType_fr</t>
+  </si>
+  <si>
+    <t>resources{}.format_resourceType_en</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -719,11 +719,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="49.28515625" customWidth="1"/>
     <col min="2" max="2" width="73.7109375" customWidth="1"/>
@@ -853,10 +853,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C12" t="s">
         <v>83</v>
@@ -1282,7 +1282,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B51" t="s">
         <v>106</v>
@@ -1439,7 +1439,7 @@
         <v>78</v>
       </c>
       <c r="B65" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="C65" t="s">
         <v>91</v>
@@ -1458,10 +1458,10 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B67" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C67" t="s">
         <v>91</v>
@@ -1472,7 +1472,7 @@
         <v>79</v>
       </c>
       <c r="B68" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="C68" t="s">
         <v>91</v>
@@ -1491,10 +1491,10 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B70" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C70" t="s">
         <v>91</v>

--- a/FME_files/LOOKUP_TABLES/Config_BC_XML_Publisher.xlsx
+++ b/FME_files/LOOKUP_TABLES/Config_BC_XML_Publisher.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="CONFIG_FILE" sheetId="1" r:id="rId1"/>
+    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -237,36 +237,6 @@
     <t>iso_topic</t>
   </si>
   <si>
-    <t>transfert_option_xlink_role</t>
-  </si>
-  <si>
-    <t>transfert_option_url</t>
-  </si>
-  <si>
-    <t>transfert_option_protocol</t>
-  </si>
-  <si>
-    <t>transfert_option_name</t>
-  </si>
-  <si>
-    <t>transfert_option_name_other_lang</t>
-  </si>
-  <si>
-    <t>transfert_option_name_other_lang_locale</t>
-  </si>
-  <si>
-    <t>transfert_option_description_service</t>
-  </si>
-  <si>
-    <t>transfert_option_description_service_other_lang</t>
-  </si>
-  <si>
-    <t>transfert_option_description_service_other_lang_locale</t>
-  </si>
-  <si>
-    <t>transfert_option_description_format</t>
-  </si>
-  <si>
     <t>METADATA_SECTION</t>
   </si>
   <si>
@@ -378,28 +348,58 @@
     <t>service_other_lang_locale</t>
   </si>
   <si>
-    <t>transfert_option_description_language_other_lang</t>
-  </si>
-  <si>
-    <t>transfert_option_description_language</t>
-  </si>
-  <si>
     <t>online_resource_protocol</t>
   </si>
   <si>
-    <t>resources{}.transfert_option_description_language_other_lang</t>
-  </si>
-  <si>
-    <t>resources{}.transfert_option_description_language</t>
-  </si>
-  <si>
     <t>abstract_other_lang_locale</t>
   </si>
   <si>
-    <t>resources{}.format_resourceType_fr</t>
-  </si>
-  <si>
-    <t>resources{}.format_resourceType_en</t>
+    <t>transfer_option_xlink_role</t>
+  </si>
+  <si>
+    <t>transfer_option_url</t>
+  </si>
+  <si>
+    <t>transfer_option_protocol</t>
+  </si>
+  <si>
+    <t>transfer_option_name</t>
+  </si>
+  <si>
+    <t>transfer_option_name_other_lang</t>
+  </si>
+  <si>
+    <t>transfer_option_name_other_lang_locale</t>
+  </si>
+  <si>
+    <t>transfer_option_description_service</t>
+  </si>
+  <si>
+    <t>resources{}.transfer_option_description_service</t>
+  </si>
+  <si>
+    <t>transfer_option_description_format</t>
+  </si>
+  <si>
+    <t>transfer_option_description_language</t>
+  </si>
+  <si>
+    <t>resources{}.transfer_option_description_language</t>
+  </si>
+  <si>
+    <t>transfer_option_description_service_other_lang</t>
+  </si>
+  <si>
+    <t>resources{}.transfer_option_description_service_other_lang</t>
+  </si>
+  <si>
+    <t>transfer_option_description_service_other_lang_locale</t>
+  </si>
+  <si>
+    <t>transfer_option_description_language_other_lang</t>
+  </si>
+  <si>
+    <t>resources{}.transfer_option_description_language_other_lang</t>
   </si>
 </sst>
 </file>
@@ -719,8 +719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C65" sqref="C65"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -732,13 +732,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="B1" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="C1" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -749,7 +749,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -760,7 +760,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -771,7 +771,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -782,7 +782,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -793,7 +793,7 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -804,7 +804,7 @@
         <v>47</v>
       </c>
       <c r="C7" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -815,7 +815,7 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -826,7 +826,7 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -837,7 +837,7 @@
         <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -848,18 +848,18 @@
         <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="B12" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="C12" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -870,7 +870,7 @@
         <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -881,7 +881,7 @@
         <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -892,7 +892,7 @@
         <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -903,7 +903,7 @@
         <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -914,7 +914,7 @@
         <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -925,7 +925,7 @@
         <v>27</v>
       </c>
       <c r="C18" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -936,7 +936,7 @@
         <v>29</v>
       </c>
       <c r="C19" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -947,7 +947,7 @@
         <v>46</v>
       </c>
       <c r="C20" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -958,7 +958,7 @@
         <v>30</v>
       </c>
       <c r="C21" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -969,7 +969,7 @@
         <v>33</v>
       </c>
       <c r="C22" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -980,7 +980,7 @@
         <v>32</v>
       </c>
       <c r="C23" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -991,7 +991,7 @@
         <v>34</v>
       </c>
       <c r="C24" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -1002,7 +1002,7 @@
         <v>35</v>
       </c>
       <c r="C25" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -1013,7 +1013,7 @@
         <v>36</v>
       </c>
       <c r="C26" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -1024,7 +1024,7 @@
         <v>37</v>
       </c>
       <c r="C27" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -1035,7 +1035,7 @@
         <v>38</v>
       </c>
       <c r="C28" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -1046,7 +1046,7 @@
         <v>39</v>
       </c>
       <c r="C29" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -1054,10 +1054,10 @@
         <v>40</v>
       </c>
       <c r="B30" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="C30" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -1068,7 +1068,7 @@
         <v>41</v>
       </c>
       <c r="C31" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -1079,7 +1079,7 @@
         <v>42</v>
       </c>
       <c r="C32" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -1090,7 +1090,7 @@
         <v>44</v>
       </c>
       <c r="C33" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -1101,7 +1101,7 @@
         <v>45</v>
       </c>
       <c r="C34" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -1112,7 +1112,7 @@
         <v>49</v>
       </c>
       <c r="C35" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -1120,10 +1120,10 @@
         <v>50</v>
       </c>
       <c r="B36" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="C36" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -1131,10 +1131,10 @@
         <v>51</v>
       </c>
       <c r="B37" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="C37" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -1145,7 +1145,7 @@
         <v>52</v>
       </c>
       <c r="C38" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -1153,10 +1153,10 @@
         <v>53</v>
       </c>
       <c r="B39" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C39" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -1164,10 +1164,10 @@
         <v>54</v>
       </c>
       <c r="B40" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="C40" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -1175,10 +1175,10 @@
         <v>55</v>
       </c>
       <c r="B41" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C41" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -1186,10 +1186,10 @@
         <v>56</v>
       </c>
       <c r="B42" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="C42" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -1197,10 +1197,10 @@
         <v>57</v>
       </c>
       <c r="B43" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="C43" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -1211,7 +1211,7 @@
         <v>58</v>
       </c>
       <c r="C44" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -1219,10 +1219,10 @@
         <v>59</v>
       </c>
       <c r="B45" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C45" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -1233,7 +1233,7 @@
         <v>60</v>
       </c>
       <c r="C46" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -1241,10 +1241,10 @@
         <v>61</v>
       </c>
       <c r="B47" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="C47" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -1252,10 +1252,10 @@
         <v>62</v>
       </c>
       <c r="B48" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="C48" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -1266,7 +1266,7 @@
         <v>63</v>
       </c>
       <c r="C49" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -1274,21 +1274,21 @@
         <v>64</v>
       </c>
       <c r="B50" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="C50" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="B51" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="C51" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -1296,10 +1296,10 @@
         <v>65</v>
       </c>
       <c r="B52" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="C52" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -1310,7 +1310,7 @@
         <v>66</v>
       </c>
       <c r="C53" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -1321,7 +1321,7 @@
         <v>67</v>
       </c>
       <c r="C54" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -1329,10 +1329,10 @@
         <v>68</v>
       </c>
       <c r="B55" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="C55" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -1340,10 +1340,10 @@
         <v>69</v>
       </c>
       <c r="B56" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C56" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -1351,10 +1351,10 @@
         <v>70</v>
       </c>
       <c r="B57" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="C57" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -1362,98 +1362,98 @@
         <v>71</v>
       </c>
       <c r="B58" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="C58" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>72</v>
+        <v>111</v>
       </c>
       <c r="B59" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="C59" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>73</v>
+        <v>112</v>
       </c>
       <c r="B60" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="C60" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="B61" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="C61" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>75</v>
+        <v>114</v>
       </c>
       <c r="B62" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="C62" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>76</v>
+        <v>115</v>
       </c>
       <c r="B63" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="C63" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>77</v>
+        <v>116</v>
       </c>
       <c r="B64" t="s">
-        <v>77</v>
+        <v>116</v>
       </c>
       <c r="C64" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>78</v>
+        <v>117</v>
       </c>
       <c r="B65" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="C65" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
+        <v>119</v>
+      </c>
+      <c r="B66" t="s">
+        <v>107</v>
+      </c>
+      <c r="C66" t="s">
         <v>81</v>
-      </c>
-      <c r="B66" t="s">
-        <v>117</v>
-      </c>
-      <c r="C66" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -1461,43 +1461,43 @@
         <v>120</v>
       </c>
       <c r="B67" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C67" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>79</v>
+        <v>122</v>
       </c>
       <c r="B68" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C68" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>80</v>
+        <v>124</v>
       </c>
       <c r="B69" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="C69" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B70" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C70" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/FME_files/LOOKUP_TABLES/Config_BC_XML_Publisher.xlsx
+++ b/FME_files/LOOKUP_TABLES/Config_BC_XML_Publisher.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10200"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="122">
   <si>
     <t>id</t>
   </si>
@@ -213,9 +213,6 @@
     <t>keyword_other_lang_locale</t>
   </si>
   <si>
-    <t>online_resource_link</t>
-  </si>
-  <si>
     <t>projection_name</t>
   </si>
   <si>
@@ -252,9 +249,6 @@
     <t>GMD_KEYWORDS</t>
   </si>
   <si>
-    <t>GMD_ONLINERESOURCE</t>
-  </si>
-  <si>
     <t>GMD_REFERENCESYSTEMINFO</t>
   </si>
   <si>
@@ -273,9 +267,6 @@
     <t>FEATURE_ATTRIBUTES</t>
   </si>
   <si>
-    <t>GMD_MDMETADATA;GMD_CONTACT;GMD_CITEDRESPONSIBLEPARTY;GMD_DISTRIBUTOR;GMD_DISTRIBUTIONFORMAT;GMD_KEYWORDS;GMD_ONLINERESOURCE;GMD_REFERENCESYSTEMINFO;GMD_RESOURCEMAINTENANCE;GMD_TOPICCATEGORY;GMD_TRANSFEROPTIONS</t>
-  </si>
-  <si>
     <t>contacts{}.name</t>
   </si>
   <si>
@@ -306,12 +297,6 @@
     <t>tags{}.display_name_fr</t>
   </si>
   <si>
-    <t>more_info{}.link</t>
-  </si>
-  <si>
-    <t>more_info{}.protocol</t>
-  </si>
-  <si>
     <t>projectionList{}.projection_name</t>
   </si>
   <si>
@@ -348,9 +333,6 @@
     <t>service_other_lang_locale</t>
   </si>
   <si>
-    <t>online_resource_protocol</t>
-  </si>
-  <si>
     <t>abstract_other_lang_locale</t>
   </si>
   <si>
@@ -375,9 +357,6 @@
     <t>transfer_option_description_service</t>
   </si>
   <si>
-    <t>resources{}.transfer_option_description_service</t>
-  </si>
-  <si>
     <t>transfer_option_description_format</t>
   </si>
   <si>
@@ -390,9 +369,6 @@
     <t>transfer_option_description_service_other_lang</t>
   </si>
   <si>
-    <t>resources{}.transfer_option_description_service_other_lang</t>
-  </si>
-  <si>
     <t>transfer_option_description_service_other_lang_locale</t>
   </si>
   <si>
@@ -400,6 +376,15 @@
   </si>
   <si>
     <t>resources{}.transfer_option_description_language_other_lang</t>
+  </si>
+  <si>
+    <t>resources{}.format_resourceType_en</t>
+  </si>
+  <si>
+    <t>resources{}.format_resourceType_fr</t>
+  </si>
+  <si>
+    <t>GMD_MDMETADATA;GMD_CONTACT;GMD_CITEDRESPONSIBLEPARTY;GMD_DISTRIBUTOR;GMD_DISTRIBUTIONFORMAT;GMD_KEYWORDS;GMD_REFERENCESYSTEMINFO;GMD_RESOURCEMAINTENANCE;GMD_TOPICCATEGORY;GMD_TRANSFEROPTIONS</t>
   </si>
 </sst>
 </file>
@@ -455,7 +440,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -717,13 +702,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C70"/>
+  <dimension ref="A1:C68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="49.28515625" customWidth="1"/>
     <col min="2" max="2" width="73.7109375" customWidth="1"/>
@@ -732,13 +717,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -749,7 +734,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>84</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -760,7 +745,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -771,7 +756,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -782,7 +767,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -793,7 +778,7 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -804,7 +789,7 @@
         <v>47</v>
       </c>
       <c r="C7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -815,7 +800,7 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -826,7 +811,7 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -837,7 +822,7 @@
         <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -848,18 +833,18 @@
         <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B12" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -870,7 +855,7 @@
         <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -881,7 +866,7 @@
         <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -892,7 +877,7 @@
         <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -903,7 +888,7 @@
         <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -914,7 +899,7 @@
         <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -925,7 +910,7 @@
         <v>27</v>
       </c>
       <c r="C18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -936,7 +921,7 @@
         <v>29</v>
       </c>
       <c r="C19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -947,7 +932,7 @@
         <v>46</v>
       </c>
       <c r="C20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -958,7 +943,7 @@
         <v>30</v>
       </c>
       <c r="C21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -969,7 +954,7 @@
         <v>33</v>
       </c>
       <c r="C22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -980,7 +965,7 @@
         <v>32</v>
       </c>
       <c r="C23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -991,7 +976,7 @@
         <v>34</v>
       </c>
       <c r="C24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -1002,7 +987,7 @@
         <v>35</v>
       </c>
       <c r="C25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -1013,7 +998,7 @@
         <v>36</v>
       </c>
       <c r="C26" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -1024,7 +1009,7 @@
         <v>37</v>
       </c>
       <c r="C27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -1035,7 +1020,7 @@
         <v>38</v>
       </c>
       <c r="C28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -1046,7 +1031,7 @@
         <v>39</v>
       </c>
       <c r="C29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -1054,10 +1039,10 @@
         <v>40</v>
       </c>
       <c r="B30" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C30" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -1068,7 +1053,7 @@
         <v>41</v>
       </c>
       <c r="C31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -1079,7 +1064,7 @@
         <v>42</v>
       </c>
       <c r="C32" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -1090,7 +1075,7 @@
         <v>44</v>
       </c>
       <c r="C33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -1101,7 +1086,7 @@
         <v>45</v>
       </c>
       <c r="C34" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -1112,7 +1097,7 @@
         <v>49</v>
       </c>
       <c r="C35" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -1120,10 +1105,10 @@
         <v>50</v>
       </c>
       <c r="B36" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C36" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -1131,10 +1116,10 @@
         <v>51</v>
       </c>
       <c r="B37" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C37" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -1145,7 +1130,7 @@
         <v>52</v>
       </c>
       <c r="C38" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -1153,10 +1138,10 @@
         <v>53</v>
       </c>
       <c r="B39" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C39" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -1164,10 +1149,10 @@
         <v>54</v>
       </c>
       <c r="B40" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C40" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -1175,10 +1160,10 @@
         <v>55</v>
       </c>
       <c r="B41" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C41" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -1186,10 +1171,10 @@
         <v>56</v>
       </c>
       <c r="B42" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C42" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -1197,10 +1182,10 @@
         <v>57</v>
       </c>
       <c r="B43" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C43" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -1211,7 +1196,7 @@
         <v>58</v>
       </c>
       <c r="C44" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -1219,10 +1204,10 @@
         <v>59</v>
       </c>
       <c r="B45" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C45" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -1233,7 +1218,7 @@
         <v>60</v>
       </c>
       <c r="C46" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -1241,10 +1226,10 @@
         <v>61</v>
       </c>
       <c r="B47" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -1252,10 +1237,10 @@
         <v>62</v>
       </c>
       <c r="B48" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C48" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -1266,7 +1251,7 @@
         <v>63</v>
       </c>
       <c r="C49" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -1274,84 +1259,84 @@
         <v>64</v>
       </c>
       <c r="B50" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C50" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c r="B51" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="C51" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B52" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="C52" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B53" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="C53" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B54" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="C54" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B55" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C55" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B56" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C56" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="B57" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C57" t="s">
         <v>79</v>
@@ -1359,145 +1344,123 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>71</v>
+        <v>106</v>
       </c>
       <c r="B58" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C58" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B59" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C59" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B60" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C60" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B61" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C61" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B62" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C62" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B63" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="C63" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B64" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="C64" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B65" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C65" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B66" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="C66" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B67" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="C67" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B68" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C68" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>124</v>
-      </c>
-      <c r="B69" t="s">
-        <v>108</v>
-      </c>
-      <c r="C69" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>125</v>
-      </c>
-      <c r="B70" t="s">
-        <v>126</v>
-      </c>
-      <c r="C70" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/FME_files/LOOKUP_TABLES/Config_BC_XML_Publisher.xlsx
+++ b/FME_files/LOOKUP_TABLES/Config_BC_XML_Publisher.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10200"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14730" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="144">
   <si>
     <t>id</t>
   </si>
@@ -385,6 +385,72 @@
   </si>
   <si>
     <t>GMD_MDMETADATA;GMD_CONTACT;GMD_CITEDRESPONSIBLEPARTY;GMD_DISTRIBUTOR;GMD_DISTRIBUTIONFORMAT;GMD_KEYWORDS;GMD_REFERENCESYSTEMINFO;GMD_RESOURCEMAINTENANCE;GMD_TOPICCATEGORY;GMD_TRANSFEROPTIONS</t>
+  </si>
+  <si>
+    <t>online_resource_link</t>
+  </si>
+  <si>
+    <t>online_resource_protocol</t>
+  </si>
+  <si>
+    <t>contact_phone</t>
+  </si>
+  <si>
+    <t>contacts{}.phone</t>
+  </si>
+  <si>
+    <t>contact_facsimile</t>
+  </si>
+  <si>
+    <t>contacts{}.facsimile</t>
+  </si>
+  <si>
+    <t>contact_address</t>
+  </si>
+  <si>
+    <t>contacts{}.address</t>
+  </si>
+  <si>
+    <t>contact_city</t>
+  </si>
+  <si>
+    <t>contacts{}.city</t>
+  </si>
+  <si>
+    <t>contact_administrative_area</t>
+  </si>
+  <si>
+    <t>contacts{}.administrative_area</t>
+  </si>
+  <si>
+    <t>contact_postalcode</t>
+  </si>
+  <si>
+    <t>contacts{}.postalcode</t>
+  </si>
+  <si>
+    <t>contact_country</t>
+  </si>
+  <si>
+    <t>contacts{}.country</t>
+  </si>
+  <si>
+    <t>online_resource_description</t>
+  </si>
+  <si>
+    <t>online_resource_description_en</t>
+  </si>
+  <si>
+    <t>online_resource_description_other_lang_locale</t>
+  </si>
+  <si>
+    <t>online_resource_description_locale</t>
+  </si>
+  <si>
+    <t>online_resource_description_other_lang</t>
+  </si>
+  <si>
+    <t>online_resource_description_fr</t>
   </si>
 </sst>
 </file>
@@ -440,7 +506,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -702,13 +768,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C68"/>
+  <dimension ref="A1:C80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="B64" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A69" sqref="A69:XFD80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="49.28515625" customWidth="1"/>
     <col min="2" max="2" width="73.7109375" customWidth="1"/>
@@ -1463,6 +1529,138 @@
         <v>79</v>
       </c>
     </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>122</v>
+      </c>
+      <c r="B69" t="s">
+        <v>122</v>
+      </c>
+      <c r="C69" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>123</v>
+      </c>
+      <c r="B70" t="s">
+        <v>123</v>
+      </c>
+      <c r="C70" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>138</v>
+      </c>
+      <c r="B71" t="s">
+        <v>139</v>
+      </c>
+      <c r="C71" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>140</v>
+      </c>
+      <c r="B72" t="s">
+        <v>141</v>
+      </c>
+      <c r="C72" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>142</v>
+      </c>
+      <c r="B73" t="s">
+        <v>143</v>
+      </c>
+      <c r="C73" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>124</v>
+      </c>
+      <c r="B74" t="s">
+        <v>125</v>
+      </c>
+      <c r="C74" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>126</v>
+      </c>
+      <c r="B75" t="s">
+        <v>127</v>
+      </c>
+      <c r="C75" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>128</v>
+      </c>
+      <c r="B76" t="s">
+        <v>129</v>
+      </c>
+      <c r="C76" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>130</v>
+      </c>
+      <c r="B77" t="s">
+        <v>131</v>
+      </c>
+      <c r="C77" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>132</v>
+      </c>
+      <c r="B78" t="s">
+        <v>133</v>
+      </c>
+      <c r="C78" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>134</v>
+      </c>
+      <c r="B79" t="s">
+        <v>135</v>
+      </c>
+      <c r="C79" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>136</v>
+      </c>
+      <c r="B80" t="s">
+        <v>137</v>
+      </c>
+      <c r="C80" t="s">
+        <v>73</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/FME_files/LOOKUP_TABLES/Config_BC_XML_Publisher.xlsx
+++ b/FME_files/LOOKUP_TABLES/Config_BC_XML_Publisher.xlsx
@@ -423,12 +423,6 @@
     <t>contacts{}.administrative_area</t>
   </si>
   <si>
-    <t>contact_postalcode</t>
-  </si>
-  <si>
-    <t>contacts{}.postalcode</t>
-  </si>
-  <si>
     <t>contact_country</t>
   </si>
   <si>
@@ -451,6 +445,12 @@
   </si>
   <si>
     <t>online_resource_description_fr</t>
+  </si>
+  <si>
+    <t>contacts{}.postal_code</t>
+  </si>
+  <si>
+    <t>contact_postal_code</t>
   </si>
 </sst>
 </file>
@@ -770,8 +770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B64" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A69" sqref="A69:XFD80"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A79" sqref="A79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1553,10 +1553,10 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B71" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C71" t="s">
         <v>73</v>
@@ -1564,10 +1564,10 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B72" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C72" t="s">
         <v>73</v>
@@ -1575,10 +1575,10 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B73" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C73" t="s">
         <v>73</v>
@@ -1641,10 +1641,10 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="B79" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="C79" t="s">
         <v>73</v>
@@ -1652,10 +1652,10 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B80" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C80" t="s">
         <v>73</v>
